--- a/UseCaseIScenarij/PrijemZatvorenika.xlsx
+++ b/UseCaseIScenarij/PrijemZatvorenika.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miamu\Desktop\UseCaseIScenarij\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Naziv</t>
   </si>
@@ -140,11 +140,122 @@
     <t>3. Ažuriranje baze podataka</t>
   </si>
   <si>
-    <t>4. Pratnja zatvorenika do medicinskog radnika</t>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
+    <t>11. Smješta ga u ćeliju</t>
+  </si>
+  <si>
+    <t>Alternativni Tok Događaja – Zdravstveno stanje zatvorenika nije odgovarajuće</t>
+  </si>
+  <si>
+    <t>Preduvjet: Medicinski radnik upostavio dijagnozu</t>
+  </si>
+  <si>
+    <t>1. Uspostavlja dijagnozu</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ažuriranje baze podataka</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ne odobrava smještanje zatvorenika u ćeliju</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Uvezivanje čipa sa sistemom</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smješta ga u ambulantu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Čipuje zatvorenika</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Pratnja zatvorenika do medicinskog radnika</t>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
     </r>
     <r>
       <rPr>
@@ -167,11 +278,11 @@
     </r>
   </si>
   <si>
-    <t>6. Unosi podatake u zdravstveni karton zatvorenika</t>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
+    <t>8. Unosi podatake u zdravstveni karton zatvorenika</t>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +306,7 @@
   </si>
   <si>
     <r>
-      <t>8.</t>
+      <t>10.</t>
     </r>
     <r>
       <rPr>
@@ -217,128 +328,11 @@
       <t>Odobrava smještanje zatvorenika u ćeliju</t>
     </r>
   </si>
-  <si>
-    <t>10. Uvezivanje čipa sa sistemom</t>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Čipuje zatvorenika</t>
-    </r>
-  </si>
-  <si>
-    <t>11. Smješta ga u ćeliju</t>
-  </si>
-  <si>
-    <t>Alternativni Tok Događaja – Zdravstveno stanje zatvorenika nije odgovarajuće</t>
-  </si>
-  <si>
-    <t>Preduvjet: Medicinski radnik upostavio dijagnozu</t>
-  </si>
-  <si>
-    <t>1. Uspostavlja dijagnozu</t>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ažuriranje baze podataka</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ne odobrava smještanje zatvorenika u ćeliju</t>
-    </r>
-  </si>
-  <si>
-    <t>4. Čipuje zatvorenika</t>
-  </si>
-  <si>
-    <t>5. Uvezivanje čipa sa sistemom</t>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smješta ga u ambulantu</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,9 +523,6 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -541,27 +532,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,20 +550,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,53 +576,86 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,535 +971,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="D3" s="43"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="D4" s="43"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="D5" s="43"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="35"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+      <c r="D7" s="29"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="D8" s="43"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="D9" s="43"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="17" t="s">
+      <c r="D10" s="35"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11" t="s">
+      <c r="D11" s="31"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41" t="s">
+      <c r="D12" s="29"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="37"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="17" t="s">
+      <c r="D13" s="35"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="31" t="s">
+      <c r="D14" s="31"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="17" t="s">
+      <c r="D15" s="33"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="11" t="s">
+      <c r="D16" s="31"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="D17" s="29"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="30"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="19"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
       <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="19"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="13"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="10"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="10"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="4" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="30"/>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="4" t="s">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="2" t="s">
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F30" s="22"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G31" s="24"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G32" s="24"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G35" s="18"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G36" s="18"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="45"/>
-    </row>
-    <row r="44" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A19:D19"/>
@@ -1521,18 +1516,7 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
